--- a/jpcore-r4/feature/medication-addtionalusage/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/medication-addtionalusage/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T22:27:30+00:00</t>
+    <t>2023-06-08T05:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/medication-addtionalusage/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/medication-addtionalusage/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T05:27:11+00:00</t>
+    <t>2023-06-08T05:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/medication-addtionalusage/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/medication-addtionalusage/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T05:40:09+00:00</t>
+    <t>2023-06-08T07:28:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
